--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-60_remove/rem4/17/correct_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-60_remove/rem4/17/correct_predictions_17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F56"/>
+  <dimension ref="A1:F55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -836,52 +836,52 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Compass Stuck</t>
+          <t>Contact DJI Support if this persists</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>4-9</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
+          <t>Strong wind warning Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Contact DJI Support if this persists</t>
+          <t>Strong wind warning</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>4-9</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -896,22 +896,22 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Strong wind warning</t>
+          <t>Lower altitude immediately and return to home manually</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>10-17</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -926,42 +926,42 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Lower altitude immediately and return to home manually</t>
+          <t>Aircraft unable to return to home automatically</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>10-17</t>
+          <t>3-9</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Strong wind warning Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
+          <t>No GPS signal Unable to hover Fly with caution .</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Aircraft unable to return to home automatically</t>
+          <t>No GPS signal</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>3-9</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -986,22 +986,22 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>No GPS signal</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>6-8</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1016,22 +1016,22 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Unable to hover</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>6-8</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1616,42 +1616,42 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>No GPS</t>
+          <t>Return the aircraft to home manually</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>6-11</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
+          <t>Aircraft in Attitude mode Unable to hover Fly with caution .</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Return the aircraft to home manually</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>6-11</t>
+          <t>7-9</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1676,22 +1676,22 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Unable to hover</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>7-9</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1706,12 +1706,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Unable to hover</t>
+          <t>Aircraft in Attitude mode</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1727,26 +1727,26 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Aircraft in Attitude mode Unable to hover Fly with caution .</t>
+          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Aircraft in Attitude mode</t>
+          <t>Aircraft may be in violation of local laws and regulations</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>4-13</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -1766,22 +1766,22 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Aircraft may be in violation of local laws and regulations</t>
+          <t>Flight altitude exceeds nnn</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>4-13</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1796,52 +1796,52 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Flight altitude exceeds nnn</t>
+          <t>Check and make sure you have obtained proper authorization to fly in this airspace</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>14-27</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
+          <t>Camera RCAM not connected Image quality affected Contact DJI Support for assistance .</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Check and make sure you have obtained proper authorization to fly in this airspace</t>
+          <t>Image quality affected</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>14-27</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1856,22 +1856,22 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Image quality affected</t>
+          <t>Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>7-11</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1886,42 +1886,42 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Contact DJI Support for assistance</t>
+          <t>Camera RCAM not connected</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>7-11</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Camera RCAM not connected Image quality affected Contact DJI Support for assistance .</t>
+          <t>GPS signal weak Hovering unstable Fly with caution .</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Camera RCAM not connected</t>
+          <t>GPS signal weak</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -1946,12 +1946,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>GPS signal weak</t>
+          <t>Hovering unstable</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -1976,52 +1976,52 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Hovering unstable</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>5-7</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>GPS signal weak Hovering unstable Fly with caution .</t>
+          <t>Strong wind warning Aircraft unable to fly stably Lower altitude immediately and manually return to home .</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Aircraft unable to fly stably</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>5-7</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -2036,12 +2036,12 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Aircraft unable to fly stably</t>
+          <t>Strong wind warning</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2066,50 +2066,20 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Strong wind warning</t>
+          <t>Lower altitude immediately and manually return to home</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>8-15</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="n">
-        <v>19</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>Strong wind warning Aircraft unable to fly stably Lower altitude immediately and manually return to home .</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>Lower altitude immediately and manually return to home</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>8-15</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-60_remove/rem4/17/correct_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-60_remove/rem4/17/correct_predictions_17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F55"/>
+  <dimension ref="A1:F56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -836,52 +836,52 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Contact DJI Support if this persists</t>
+          <t>Compass Stuck</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>4-9</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Strong wind warning Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
+          <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Strong wind warning</t>
+          <t>Contact DJI Support if this persists</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-9</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -896,22 +896,22 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Lower altitude immediately and return to home manually</t>
+          <t>Strong wind warning</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>10-17</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -926,42 +926,42 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Aircraft unable to return to home automatically</t>
+          <t>Lower altitude immediately and return to home manually</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>3-9</t>
+          <t>10-17</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>No GPS signal Unable to hover Fly with caution .</t>
+          <t>Strong wind warning Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>No GPS signal</t>
+          <t>Aircraft unable to return to home automatically</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-9</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -986,22 +986,22 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>No GPS signal</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>6-8</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1016,22 +1016,22 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Unable to hover</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>6-8</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1616,42 +1616,42 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Return the aircraft to home manually</t>
+          <t>No GPS</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>6-11</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Aircraft in Attitude mode Unable to hover Fly with caution .</t>
+          <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Return the aircraft to home manually</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>7-9</t>
+          <t>6-11</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1676,22 +1676,22 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Unable to hover</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>7-9</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1706,12 +1706,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Aircraft in Attitude mode</t>
+          <t>Unable to hover</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1727,26 +1727,26 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
+          <t>Aircraft in Attitude mode Unable to hover Fly with caution .</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Aircraft may be in violation of local laws and regulations</t>
+          <t>Aircraft in Attitude mode</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>4-13</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -1766,22 +1766,22 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Flight altitude exceeds nnn</t>
+          <t>Aircraft may be in violation of local laws and regulations</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>4-13</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1796,52 +1796,52 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Check and make sure you have obtained proper authorization to fly in this airspace</t>
+          <t>Flight altitude exceeds nnn</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>14-27</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Camera RCAM not connected Image quality affected Contact DJI Support for assistance .</t>
+          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Image quality affected</t>
+          <t>Check and make sure you have obtained proper authorization to fly in this airspace</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>14-27</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1856,22 +1856,22 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Contact DJI Support for assistance</t>
+          <t>Image quality affected</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>7-11</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1886,42 +1886,42 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Camera RCAM not connected</t>
+          <t>Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>7-11</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>GPS signal weak Hovering unstable Fly with caution .</t>
+          <t>Camera RCAM not connected Image quality affected Contact DJI Support for assistance .</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>GPS signal weak</t>
+          <t>Camera RCAM not connected</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -1946,12 +1946,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Hovering unstable</t>
+          <t>GPS signal weak</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -1976,52 +1976,52 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Hovering unstable</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>5-7</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Strong wind warning Aircraft unable to fly stably Lower altitude immediately and manually return to home .</t>
+          <t>GPS signal weak Hovering unstable Fly with caution .</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Aircraft unable to fly stably</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>5-7</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -2036,12 +2036,12 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Strong wind warning</t>
+          <t>Aircraft unable to fly stably</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2066,20 +2066,50 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
+          <t>Strong wind warning</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0-2</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>19</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Strong wind warning Aircraft unable to fly stably Lower altitude immediately and manually return to home .</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
           <t>Lower altitude immediately and manually return to home</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="D56" t="inlineStr">
         <is>
           <t>8-15</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
